--- a/medicine/Médecine vétérinaire/Anoplura/Anoplura.xlsx
+++ b/medicine/Médecine vétérinaire/Anoplura/Anoplura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anoploures (Anoplura) forment un groupe d'insectes, quelquefois référencé comme sous-ordre de l'ordre Phthiraptera, quelquefois comme ordre du super-ordre Neoptera.
 Les quelque 230 espèces connues sont toutes parasites des mammifères, dont elles sucent le sang. D'aspect semblable au mallophages, elles ont des pièces buccales acérées qui percent l'épiderme comme de minuscules stylets. Leur griffes leur permettent d'agripper fermement les poils de leur hôte.
@@ -513,7 +525,9 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Echinophthiriidae Enderlein, 1904 (poux des phoques)
 Enderleinellidae Ewing, 1929
